--- a/ratings_zh.xlsx
+++ b/ratings_zh.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wennxd/Desktop/Project/Capstone_FYP_CBS/实验/gender bias验证/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\Projects\occupational-bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4610423-E095-844F-8140-555B3B8B8A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A382878-C7C3-4611-94A0-1D7055C190C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25600" windowHeight="15960" xr2:uid="{3B3B8B61-F9D5-DF43-9EFC-BD1E70A9AC47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3B3B8B61-F9D5-DF43-9EFC-BD1E70A9AC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>人事（HR）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>男画家</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -269,17 +265,20 @@
   <si>
     <t>建筑师</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -307,7 +306,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -359,7 +358,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -693,16 +692,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EE02C3-9B67-2A4B-AC8C-40CE256DE1A5}">
   <dimension ref="A1:BB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BC1" sqref="BC1"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="12.1640625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,45 +843,45 @@
         <v>51</v>
       </c>
       <c r="AU1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>60</v>
-      </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
         <v>-1</v>
@@ -889,28 +890,28 @@
         <v>0</v>
       </c>
       <c r="H2" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I2" s="4">
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K2" s="4">
         <v>0</v>
       </c>
       <c r="L2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N2" s="4">
         <v>-3</v>
       </c>
       <c r="O2" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P2" s="4">
         <v>0</v>
@@ -919,13 +920,13 @@
         <v>-1</v>
       </c>
       <c r="R2" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S2" s="4">
         <v>-3</v>
       </c>
       <c r="T2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="4">
         <v>0</v>
@@ -934,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X2" s="4">
         <v>-2</v>
@@ -955,16 +956,16 @@
         <v>-1</v>
       </c>
       <c r="AD2" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH2" s="4">
         <v>-1</v>
@@ -976,43 +977,43 @@
         <v>0</v>
       </c>
       <c r="AK2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR2" s="4">
         <v>0</v>
       </c>
       <c r="AS2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU2" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="4">
         <v>3</v>
       </c>
       <c r="AW2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX2" s="4">
         <v>0</v>
@@ -1021,18 +1022,18 @@
         <v>3</v>
       </c>
       <c r="AZ2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB2" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -1041,31 +1042,31 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="4">
         <v>-2</v>
       </c>
       <c r="I3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K3" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" s="4">
         <v>-2</v>
@@ -1077,28 +1078,28 @@
         <v>0</v>
       </c>
       <c r="P3" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4">
         <v>-3</v>
       </c>
       <c r="T3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U3" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W3" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X3" s="4">
         <v>-2</v>
@@ -1110,64 +1111,64 @@
         <v>-3</v>
       </c>
       <c r="AA3" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC3" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD3" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AG3" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI3" s="4">
         <v>3</v>
       </c>
       <c r="AJ3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AU3" s="4">
         <v>-2</v>
@@ -1176,27 +1177,27 @@
         <v>3</v>
       </c>
       <c r="AW3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="4">
         <v>3</v>
       </c>
       <c r="AZ3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB3" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>4</v>
@@ -1205,31 +1206,31 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="4">
         <v>-2</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="L4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M4" s="4">
         <v>-2</v>
@@ -1241,31 +1242,31 @@
         <v>0</v>
       </c>
       <c r="P4" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Q4" s="4">
         <v>-2</v>
       </c>
       <c r="R4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" s="4">
         <v>-3</v>
       </c>
       <c r="T4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X4" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y4" s="4">
         <v>0</v>
@@ -1274,67 +1275,67 @@
         <v>-3</v>
       </c>
       <c r="AA4" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AB4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC4" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AD4" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF4" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AG4" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH4" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI4" s="4">
         <v>3</v>
       </c>
       <c r="AJ4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU4" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AV4" s="4">
         <v>3</v>
@@ -1343,33 +1344,33 @@
         <v>2</v>
       </c>
       <c r="AX4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="4">
         <v>3</v>
       </c>
       <c r="AZ4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB4" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
@@ -1378,7 +1379,7 @@
         <v>-1</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="4">
         <v>-2</v>
@@ -1390,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" s="4">
         <v>-2</v>
@@ -1402,7 +1403,7 @@
         <v>-3</v>
       </c>
       <c r="O5" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P5" s="4">
         <v>-1</v>
@@ -1420,43 +1421,43 @@
         <v>1</v>
       </c>
       <c r="U5" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5" s="4">
         <v>-1</v>
       </c>
       <c r="X5" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="4">
         <v>-3</v>
       </c>
       <c r="AA5" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB5" s="4">
         <v>1</v>
       </c>
       <c r="AC5" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AD5" s="4">
         <v>0</v>
       </c>
       <c r="AE5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="4">
         <v>-1</v>
@@ -1465,40 +1466,40 @@
         <v>3</v>
       </c>
       <c r="AJ5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL5" s="4">
         <v>1</v>
       </c>
       <c r="AM5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN5" s="4">
         <v>1</v>
       </c>
       <c r="AO5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="4">
         <v>1</v>
       </c>
       <c r="AQ5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="4">
         <v>0</v>
       </c>
       <c r="AS5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="4">
         <v>1</v>
       </c>
       <c r="AU5" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="4">
         <v>3</v>
@@ -1516,179 +1517,179 @@
         <v>1</v>
       </c>
       <c r="BA5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>-2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>-2</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>-2</v>
+      </c>
+      <c r="N6" s="4">
+        <v>-3</v>
+      </c>
+      <c r="O6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>-2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>-3</v>
+      </c>
+      <c r="T6" s="4">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="X6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>-3</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>-2</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AW6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>3</v>
+      </c>
+      <c r="AZ6" s="4">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>5</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="K6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="L6" s="4">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
-        <v>-2</v>
-      </c>
-      <c r="N6" s="4">
-        <v>-3</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4">
-        <v>-3</v>
-      </c>
-      <c r="T6" s="4">
-        <v>1</v>
-      </c>
-      <c r="U6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="V6" s="4">
-        <v>1</v>
-      </c>
-      <c r="W6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="X6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>-3</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AF6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>-2</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>3</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AO6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AV6" s="4">
-        <v>3</v>
-      </c>
-      <c r="AW6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="4">
-        <v>3</v>
-      </c>
-      <c r="AZ6" s="4">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="4">
-        <v>2</v>
-      </c>
-      <c r="BB6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:54">
-      <c r="A7" s="4">
-        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -1700,7 +1701,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
@@ -1712,13 +1713,13 @@
         <v>-1</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K7" s="4">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="4">
         <v>0</v>
@@ -1736,19 +1737,19 @@
         <v>-1</v>
       </c>
       <c r="Q7" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R7" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4">
         <v>-3</v>
       </c>
       <c r="T7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="V7" s="4">
         <v>1</v>
@@ -1757,7 +1758,7 @@
         <v>-1</v>
       </c>
       <c r="X7" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y7" s="4">
         <v>0</v>
@@ -1766,13 +1767,13 @@
         <v>-3</v>
       </c>
       <c r="AA7" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD7" s="4">
         <v>-1</v>
@@ -1784,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AH7" s="4">
         <v>-2</v>
@@ -1796,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="AK7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN7" s="4">
         <v>1</v>
       </c>
       <c r="AO7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="4">
         <v>2</v>
@@ -1823,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="AT7" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU7" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV7" s="4">
         <v>3</v>
@@ -1835,57 +1836,57 @@
         <v>2</v>
       </c>
       <c r="AX7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7" s="4">
         <v>3</v>
       </c>
       <c r="AZ7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA7" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K8" s="4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="L8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
         <v>-2</v>
@@ -1897,28 +1898,28 @@
         <v>0</v>
       </c>
       <c r="P8" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q8" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R8" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="S8" s="4">
         <v>-3</v>
       </c>
       <c r="T8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U8" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X8" s="4">
         <v>-2</v>
@@ -1933,25 +1934,25 @@
         <v>0</v>
       </c>
       <c r="AB8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="4">
         <v>0</v>
       </c>
       <c r="AD8" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="4">
         <v>0</v>
       </c>
       <c r="AG8" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH8" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AI8" s="4">
         <v>3</v>
@@ -1960,25 +1961,25 @@
         <v>0</v>
       </c>
       <c r="AK8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8" s="4">
         <v>0</v>
       </c>
       <c r="AM8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP8" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="4">
         <v>0</v>
@@ -1987,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8" s="4">
         <v>0</v>
@@ -1999,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="AX8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="4">
         <v>3</v>
@@ -2008,18 +2009,18 @@
         <v>0</v>
       </c>
       <c r="BA8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB8" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -2028,31 +2029,31 @@
         <v>6</v>
       </c>
       <c r="E9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="4">
         <v>-2</v>
       </c>
       <c r="L9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N9" s="4">
         <v>-3</v>
@@ -2067,13 +2068,13 @@
         <v>-1</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="S9" s="4">
         <v>-3</v>
       </c>
       <c r="T9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U9" s="4">
         <v>0</v>
@@ -2085,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Y9" s="4">
         <v>0</v>
@@ -2106,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="AE9" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF9" s="4">
         <v>0</v>
@@ -2115,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="AH9" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI9" s="4">
         <v>3</v>
@@ -2127,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="AL9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" s="4">
         <v>2</v>
@@ -2136,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="AO9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9" s="4">
         <v>0</v>
       </c>
       <c r="AQ9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR9" s="4">
         <v>0</v>
@@ -2151,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="4">
         <v>0</v>
@@ -2163,7 +2164,7 @@
         <v>2</v>
       </c>
       <c r="AX9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY9" s="4">
         <v>3</v>
@@ -2175,111 +2176,111 @@
         <v>2</v>
       </c>
       <c r="BB9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K10" s="4">
         <v>-2</v>
       </c>
       <c r="L10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N10" s="4">
         <v>-3</v>
       </c>
       <c r="O10" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="P10" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="4">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="R10" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="4">
         <v>-3</v>
       </c>
       <c r="T10" s="4">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="U10" s="4">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="V10" s="4">
         <v>0</v>
       </c>
       <c r="W10" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X10" s="4">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="Y10" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="4">
         <v>-3</v>
       </c>
       <c r="AA10" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF10" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="4">
         <v>0</v>
       </c>
       <c r="AH10" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AI10" s="4">
         <v>3</v>
@@ -2288,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="AK10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL10" s="4">
         <v>1</v>
       </c>
       <c r="AM10" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP10" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="4">
         <v>0</v>
@@ -2315,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="AT10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU10" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="4">
         <v>3</v>
@@ -2327,7 +2328,7 @@
         <v>2</v>
       </c>
       <c r="AX10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="4">
         <v>3</v>
@@ -2339,18 +2340,18 @@
         <v>2</v>
       </c>
       <c r="BB10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>7</v>
@@ -2359,25 +2360,25 @@
         <v>2</v>
       </c>
       <c r="F11" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <v>-2</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="L11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" s="4">
         <v>-2</v>
@@ -2386,34 +2387,34 @@
         <v>-3</v>
       </c>
       <c r="O11" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="P11" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Q11" s="4">
         <v>-3</v>
       </c>
       <c r="R11" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="S11" s="4">
         <v>-3</v>
       </c>
       <c r="T11" s="4">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="U11" s="4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="V11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="X11" s="4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="Y11" s="4">
         <v>-1</v>
@@ -2428,7 +2429,7 @@
         <v>1</v>
       </c>
       <c r="AC11" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD11" s="4">
         <v>-1</v>
@@ -2437,52 +2438,52 @@
         <v>1</v>
       </c>
       <c r="AF11" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG11" s="4">
         <v>0</v>
       </c>
       <c r="AH11" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AI11" s="4">
         <v>3</v>
       </c>
       <c r="AJ11" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11" s="4">
         <v>1</v>
       </c>
       <c r="AM11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ11" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR11" s="4">
         <v>0</v>
       </c>
       <c r="AS11" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU11" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="AV11" s="4">
         <v>3</v>
@@ -2491,7 +2492,7 @@
         <v>2</v>
       </c>
       <c r="AX11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="4">
         <v>3</v>
@@ -2506,21 +2507,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="4">
         <v>-1</v>
@@ -2535,28 +2536,28 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="K12" s="4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="L12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N12" s="4">
         <v>-3</v>
       </c>
       <c r="O12" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="4">
         <v>-2</v>
       </c>
       <c r="Q12" s="4">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="R12" s="4">
         <v>-1</v>
@@ -2568,19 +2569,19 @@
         <v>1</v>
       </c>
       <c r="U12" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V12" s="4">
         <v>1</v>
       </c>
       <c r="W12" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="X12" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Y12" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z12" s="4">
         <v>-3</v>
@@ -2592,13 +2593,13 @@
         <v>1</v>
       </c>
       <c r="AC12" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="4">
         <v>0</v>
@@ -2616,7 +2617,7 @@
         <v>1</v>
       </c>
       <c r="AK12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" s="4">
         <v>1</v>
@@ -2625,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="AN12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12" s="4">
         <v>1</v>
@@ -2634,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="AQ12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="4">
         <v>0</v>
       </c>
       <c r="AS12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT12" s="4">
         <v>1</v>
@@ -2652,7 +2653,7 @@
         <v>3</v>
       </c>
       <c r="AW12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" s="4">
         <v>0</v>
@@ -2661,27 +2662,27 @@
         <v>3</v>
       </c>
       <c r="AZ12" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB12" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -2693,19 +2694,19 @@
         <v>0</v>
       </c>
       <c r="H13" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I13" s="4">
         <v>0</v>
       </c>
       <c r="J13" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="K13" s="4">
         <v>-1</v>
       </c>
       <c r="L13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" s="4">
         <v>-1</v>
@@ -2714,16 +2715,16 @@
         <v>-3</v>
       </c>
       <c r="O13" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P13" s="4">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="Q13" s="4">
         <v>-2</v>
       </c>
       <c r="R13" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S13" s="4">
         <v>-3</v>
@@ -2732,10 +2733,10 @@
         <v>1</v>
       </c>
       <c r="U13" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" s="4">
         <v>-1</v>
@@ -2750,25 +2751,25 @@
         <v>-3</v>
       </c>
       <c r="AA13" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD13" s="4">
         <v>0</v>
       </c>
       <c r="AE13" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF13" s="4">
         <v>0</v>
       </c>
       <c r="AG13" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="4">
         <v>-1</v>
@@ -2777,10 +2778,10 @@
         <v>3</v>
       </c>
       <c r="AJ13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13" s="4">
         <v>1</v>
@@ -2789,13 +2790,13 @@
         <v>2</v>
       </c>
       <c r="AN13" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="4">
         <v>1</v>
       </c>
       <c r="AP13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13" s="4">
         <v>1</v>
@@ -2810,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="AU13" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AV13" s="4">
         <v>3</v>
@@ -2825,21 +2826,21 @@
         <v>3</v>
       </c>
       <c r="AZ13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA13" s="4">
         <v>1</v>
       </c>
       <c r="BB13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -2851,28 +2852,28 @@
         <v>1</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="4">
         <v>-1</v>
       </c>
       <c r="K14" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="4">
         <v>-3</v>
@@ -2881,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q14" s="4">
         <v>-2</v>
@@ -2896,13 +2897,13 @@
         <v>1</v>
       </c>
       <c r="U14" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X14" s="4">
         <v>-1</v>
@@ -2914,10 +2915,10 @@
         <v>-3</v>
       </c>
       <c r="AA14" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="4">
         <v>0</v>
@@ -2932,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="AG14" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH14" s="4">
         <v>-1</v>
@@ -2947,34 +2948,34 @@
         <v>0</v>
       </c>
       <c r="AL14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN14" s="4">
         <v>1</v>
       </c>
       <c r="AO14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14" s="4">
         <v>0</v>
       </c>
       <c r="AS14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14" s="4">
         <v>1</v>
       </c>
       <c r="AU14" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV14" s="4">
         <v>3</v>
@@ -2998,24 +2999,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="4">
         <v>1</v>
@@ -3024,19 +3025,19 @@
         <v>-2</v>
       </c>
       <c r="I15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K15" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="4">
         <v>2</v>
       </c>
       <c r="M15" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
         <v>-3</v>
@@ -3051,28 +3052,28 @@
         <v>-2</v>
       </c>
       <c r="R15" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S15" s="4">
         <v>-3</v>
       </c>
       <c r="T15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V15" s="4">
         <v>1</v>
       </c>
       <c r="W15" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X15" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y15" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="4">
         <v>-3</v>
@@ -3081,22 +3082,22 @@
         <v>-1</v>
       </c>
       <c r="AB15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="4">
         <v>0</v>
       </c>
       <c r="AE15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF15" s="4">
         <v>0</v>
       </c>
       <c r="AG15" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="4">
         <v>-1</v>
@@ -3108,22 +3109,22 @@
         <v>0</v>
       </c>
       <c r="AK15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN15" s="4">
         <v>1</v>
       </c>
       <c r="AO15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ15" s="4">
         <v>0</v>
@@ -3132,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU15" s="4">
         <v>0</v>
@@ -3144,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="AW15" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX15" s="4">
         <v>0</v>
@@ -3153,18 +3154,18 @@
         <v>3</v>
       </c>
       <c r="AZ15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA15" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>4</v>
@@ -3182,22 +3183,22 @@
         <v>-1</v>
       </c>
       <c r="G16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="4">
         <v>-2</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4">
         <v>-2</v>
       </c>
       <c r="L16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="4">
         <v>-2</v>
@@ -3206,7 +3207,7 @@
         <v>-3</v>
       </c>
       <c r="O16" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="4">
         <v>-1</v>
@@ -3227,7 +3228,7 @@
         <v>-1</v>
       </c>
       <c r="V16" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W16" s="4">
         <v>-1</v>
@@ -3236,22 +3237,22 @@
         <v>-2</v>
       </c>
       <c r="Y16" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z16" s="4">
         <v>-3</v>
       </c>
       <c r="AA16" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16" s="4">
         <v>-2</v>
       </c>
       <c r="AD16" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="4">
         <v>2</v>
@@ -3272,7 +3273,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL16" s="4">
         <v>2</v>
@@ -3281,16 +3282,16 @@
         <v>2</v>
       </c>
       <c r="AN16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP16" s="4">
         <v>1</v>
       </c>
       <c r="AQ16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="4">
         <v>0</v>
@@ -3302,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="AU16" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AV16" s="4">
         <v>3</v>
@@ -3311,24 +3312,24 @@
         <v>3</v>
       </c>
       <c r="AX16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="4">
         <v>3</v>
       </c>
       <c r="AZ16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA16" s="4">
         <v>2</v>
       </c>
       <c r="BB16" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:54">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>4</v>
@@ -3352,13 +3353,13 @@
         <v>-2</v>
       </c>
       <c r="I17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K17" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L17" s="4">
         <v>1</v>
@@ -3370,34 +3371,34 @@
         <v>-3</v>
       </c>
       <c r="O17" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
       </c>
       <c r="Q17" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R17" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S17" s="4">
         <v>-3</v>
       </c>
       <c r="T17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" s="4">
         <v>-1</v>
       </c>
       <c r="V17" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W17" s="4">
         <v>-1</v>
       </c>
       <c r="X17" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="Y17" s="4">
         <v>0</v>
@@ -3409,25 +3410,25 @@
         <v>0</v>
       </c>
       <c r="AB17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD17" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AE17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="4">
         <v>0</v>
       </c>
       <c r="AG17" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AH17" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI17" s="4">
         <v>3</v>
@@ -3436,46 +3437,46 @@
         <v>0</v>
       </c>
       <c r="AK17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN17" s="4">
         <v>0</v>
       </c>
       <c r="AO17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" s="4">
         <v>0</v>
       </c>
       <c r="AS17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU17" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AV17" s="4">
         <v>3</v>
       </c>
       <c r="AW17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY17" s="4">
         <v>3</v>
@@ -3484,21 +3485,21 @@
         <v>0</v>
       </c>
       <c r="BA17" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB17" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:54">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>7</v>
@@ -3513,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="H18" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -3522,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
         <v>1</v>
       </c>
       <c r="M18" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N18" s="4">
         <v>-3</v>
@@ -3537,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="4">
         <v>-1</v>
@@ -3552,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="U18" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V18" s="4">
         <v>0</v>
@@ -3561,7 +3562,7 @@
         <v>-1</v>
       </c>
       <c r="X18" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y18" s="4">
         <v>0</v>
@@ -3582,7 +3583,7 @@
         <v>0</v>
       </c>
       <c r="AE18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF18" s="4">
         <v>0</v>
@@ -3600,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="AK18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL18" s="4">
         <v>0</v>
@@ -3612,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="AO18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP18" s="4">
         <v>0</v>
@@ -3627,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="4">
         <v>0</v>
@@ -3648,27 +3649,27 @@
         <v>0</v>
       </c>
       <c r="BA18" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:54">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" s="4">
         <v>-1</v>
@@ -3680,16 +3681,16 @@
         <v>-1</v>
       </c>
       <c r="I19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="L19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="4">
         <v>-1</v>
@@ -3707,13 +3708,13 @@
         <v>-1</v>
       </c>
       <c r="R19" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="4">
         <v>-3</v>
       </c>
       <c r="T19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19" s="4">
         <v>0</v>
@@ -3725,7 +3726,7 @@
         <v>-1</v>
       </c>
       <c r="X19" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="4">
         <v>0</v>
@@ -3746,7 +3747,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="4">
         <v>0</v>
@@ -3755,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AH19" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI19" s="4">
         <v>3</v>
@@ -3764,25 +3765,25 @@
         <v>0</v>
       </c>
       <c r="AK19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM19" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="4">
         <v>0</v>
       </c>
       <c r="AO19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="4">
         <v>0</v>
@@ -3794,36 +3795,36 @@
         <v>1</v>
       </c>
       <c r="AU19" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="4">
         <v>3</v>
       </c>
       <c r="AW19" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="4">
         <v>3</v>
       </c>
       <c r="AZ19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:54">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>8</v>
@@ -3832,7 +3833,7 @@
         <v>7</v>
       </c>
       <c r="E20" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="4">
         <v>-1</v>
@@ -3844,16 +3845,16 @@
         <v>-1</v>
       </c>
       <c r="I20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" s="4">
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" s="4">
         <v>-1</v>
@@ -3877,7 +3878,7 @@
         <v>-3</v>
       </c>
       <c r="T20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U20" s="4">
         <v>0</v>
@@ -3886,10 +3887,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X20" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Y20" s="4">
         <v>0</v>
@@ -3919,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AH20" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AI20" s="4">
         <v>3</v>
@@ -3928,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="AK20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM20" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN20" s="4">
         <v>0</v>
@@ -3943,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="AP20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" s="4">
         <v>0</v>
@@ -3955,36 +3956,36 @@
         <v>0</v>
       </c>
       <c r="AT20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU20" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV20" s="4">
         <v>3</v>
       </c>
       <c r="AW20" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY20" s="4">
         <v>3</v>
       </c>
       <c r="AZ20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA20" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:54">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
@@ -4011,22 +4012,22 @@
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
         <v>1</v>
       </c>
       <c r="M21" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="N21" s="4">
         <v>-3</v>
       </c>
       <c r="O21" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P21" s="4">
         <v>0</v>
@@ -4035,25 +4036,25 @@
         <v>-1</v>
       </c>
       <c r="R21" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S21" s="4">
         <v>-3</v>
       </c>
       <c r="T21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="4">
         <v>0</v>
       </c>
       <c r="V21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="X21" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="4">
         <v>0</v>
@@ -4062,25 +4063,25 @@
         <v>-3</v>
       </c>
       <c r="AA21" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="4">
         <v>0</v>
       </c>
       <c r="AE21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF21" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="4">
         <v>0</v>
@@ -4092,22 +4093,22 @@
         <v>0</v>
       </c>
       <c r="AK21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AM21" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="4">
         <v>0</v>
@@ -4119,36 +4120,36 @@
         <v>0</v>
       </c>
       <c r="AT21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV21" s="4">
         <v>3</v>
       </c>
       <c r="AW21" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="4">
         <v>3</v>
       </c>
       <c r="AZ21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA21" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:54">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>10</v>
@@ -4160,31 +4161,31 @@
         <v>7</v>
       </c>
       <c r="E22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
       </c>
       <c r="J22" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K22" s="4">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="L22" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="4">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="N22" s="4">
         <v>-3</v>
@@ -4196,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="4">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="R22" s="4">
         <v>0</v>
@@ -4208,16 +4209,16 @@
         <v>1</v>
       </c>
       <c r="U22" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="V22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="X22" s="4">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="Y22" s="4">
         <v>0</v>
@@ -4226,25 +4227,25 @@
         <v>-3</v>
       </c>
       <c r="AA22" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AB22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC22" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD22" s="4">
         <v>0</v>
       </c>
       <c r="AE22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF22" s="4">
         <v>-1</v>
       </c>
       <c r="AG22" s="4">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="4">
         <v>0</v>
@@ -4256,25 +4257,25 @@
         <v>0</v>
       </c>
       <c r="AK22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL22" s="4">
         <v>2</v>
       </c>
       <c r="AM22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO22" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22" s="4">
         <v>1</v>
       </c>
       <c r="AQ22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="4">
         <v>0</v>
@@ -4283,36 +4284,36 @@
         <v>0</v>
       </c>
       <c r="AT22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AV22" s="4">
         <v>3</v>
       </c>
       <c r="AW22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY22" s="4">
         <v>3</v>
       </c>
       <c r="AZ22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA22" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB22" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:54">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
@@ -4324,13 +4325,13 @@
         <v>7</v>
       </c>
       <c r="E23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="G23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="4">
         <v>-2</v>
@@ -4342,25 +4343,25 @@
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="L23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M23" s="4">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="N23" s="4">
         <v>-3</v>
       </c>
       <c r="O23" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P23" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="4">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="R23" s="4">
         <v>0</v>
@@ -4372,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="U23" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V23" s="4">
         <v>0</v>
@@ -4393,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" s="4">
         <v>0</v>
@@ -4402,13 +4403,13 @@
         <v>0</v>
       </c>
       <c r="AE23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG23" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AH23" s="4">
         <v>0</v>
@@ -4423,22 +4424,22 @@
         <v>0</v>
       </c>
       <c r="AL23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM23" s="4">
         <v>2</v>
       </c>
       <c r="AN23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO23" s="4">
         <v>1</v>
       </c>
       <c r="AP23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" s="4">
         <v>0</v>
@@ -4447,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="AT23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="4">
         <v>0</v>
@@ -4468,27 +4469,27 @@
         <v>0</v>
       </c>
       <c r="BA23" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB23" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:54">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="4">
         <v>-1</v>
@@ -4497,22 +4498,22 @@
         <v>0</v>
       </c>
       <c r="H24" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="N24" s="4">
         <v>-3</v>
@@ -4521,13 +4522,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q24" s="4">
         <v>-1</v>
       </c>
       <c r="R24" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S24" s="4">
         <v>-3</v>
@@ -4536,13 +4537,13 @@
         <v>1</v>
       </c>
       <c r="U24" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="V24" s="4">
         <v>0</v>
       </c>
       <c r="W24" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="4">
         <v>-2</v>
@@ -4557,25 +4558,25 @@
         <v>0</v>
       </c>
       <c r="AB24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="4">
         <v>0</v>
       </c>
       <c r="AG24" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AI24" s="4">
         <v>3</v>
@@ -4584,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL24" s="4">
         <v>1</v>
@@ -4593,13 +4594,13 @@
         <v>2</v>
       </c>
       <c r="AN24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="4">
         <v>1</v>
       </c>
       <c r="AP24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="4">
         <v>0</v>
@@ -4632,24 +4633,24 @@
         <v>0</v>
       </c>
       <c r="BA24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:54">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -4664,25 +4665,25 @@
         <v>-1</v>
       </c>
       <c r="I25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K25" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="L25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="N25" s="4">
         <v>-3</v>
       </c>
       <c r="O25" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="4">
         <v>0</v>
@@ -4697,10 +4698,10 @@
         <v>-3</v>
       </c>
       <c r="T25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="V25" s="4">
         <v>0</v>
@@ -4721,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="AB25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" s="4">
         <v>-1</v>
@@ -4748,10 +4749,10 @@
         <v>0</v>
       </c>
       <c r="AK25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM25" s="4">
         <v>2</v>
@@ -4766,13 +4767,13 @@
         <v>1</v>
       </c>
       <c r="AQ25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="4">
         <v>0</v>
       </c>
       <c r="AS25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="4">
         <v>1</v>
@@ -4793,10 +4794,10 @@
         <v>3</v>
       </c>
       <c r="AZ25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="4">
         <v>1</v>
@@ -4805,5 +4806,6 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ratings_zh.xlsx
+++ b/ratings_zh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\Projects\occupational-bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A382878-C7C3-4611-94A0-1D7055C190C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F782027-96D1-4EAB-B58C-0D974873160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3B3B8B61-F9D5-DF43-9EFC-BD1E70A9AC47}"/>
   </bookViews>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EE02C3-9B67-2A4B-AC8C-40CE256DE1A5}">
   <dimension ref="A1:BB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ratings_zh.xlsx
+++ b/ratings_zh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\razer\Projects\occupational-bias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\occupational-bias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F782027-96D1-4EAB-B58C-0D974873160A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C37077F-6831-4458-A827-97579CF73C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3B3B8B61-F9D5-DF43-9EFC-BD1E70A9AC47}"/>
+    <workbookView xWindow="14303" yWindow="-5303" windowWidth="28995" windowHeight="15676" xr2:uid="{3B3B8B61-F9D5-DF43-9EFC-BD1E70A9AC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,199 +72,199 @@
   </si>
   <si>
     <t>警察</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>秘书</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>教授</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>护士</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高管</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>教师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前台</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>幼师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>妈妈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>模特</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>护工</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保姆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>会计</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>女画家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工程师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保洁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法官</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导购员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>美容师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>服务员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>女作家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>乘务员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>理发师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空服员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>售票员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>厨师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>营养师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>家政员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>收银员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>爸爸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>医生</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>法医</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>程序员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保安</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>导演</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>军人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>董事长</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>农民</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>园丁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>飞行员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学生</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男画家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>消防员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>科学家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>男作家</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检察官</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>救生员</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建筑师</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>人事</t>
@@ -274,7 +274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,32 +284,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="SimSun"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -344,16 +335,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,178 +683,192 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25EE02C3-9B67-2A4B-AC8C-40CE256DE1A5}">
   <dimension ref="A1:BB25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="12.1640625" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="1" width="2.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="18" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="37" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="41" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="45" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="54" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AI1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AV1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4804,7 +4809,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
